--- a/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,09%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>71,77; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>70,35; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>76,02; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>77,61; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>84,67; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,72%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>49,89; 91,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>80,08; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>96,7; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>78,46; 96,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>97,82; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>93,2; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>76,86; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>87,12; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>87,66; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>88,95; 98,72</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,61%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>84,92; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>69,03; 97,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>91,71; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>83,45; 96,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>81,84; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>91,11; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>88,34; 97,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>83,01; 97,63</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>79,66; 97,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>85,85; 97,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>93,61; 98,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>92,56; 98,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>90,81; 98,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>95,94; 99,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>92,7; 97,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,48%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>73,79; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>68,29; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>77,98; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>80,93; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>85,86; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,12 +767,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>98,72%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>49,89; 91,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,77; 100,0</t>
+          <t>80,08; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,35; 100,0</t>
+          <t>94,39; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,68; 100</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,02; 100,0</t>
+          <t>96,7; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,61; 100,0</t>
+          <t>78,46; 96,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>97,82; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>84,67; 100,0</t>
+          <t>93,2; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>75,1%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,27 +872,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>95,9%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>49,89; 91,59</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>92,94; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>80,08; 100,0</t>
+          <t>76,86; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>96,52; 100</t>
+          <t>87,12; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,7; 100</t>
+          <t>87,66; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,46; 96,64</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,82; 100</t>
+          <t>91,69; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,2; 100,0</t>
+          <t>88,95; 98,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,37 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>92,61%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>84,92; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,86; 100,0</t>
+          <t>69,03; 97,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,85; 100</t>
+          <t>91,71; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>87,12; 100,0</t>
+          <t>83,45; 96,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 100,0</t>
+          <t>81,84; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,66; 100</t>
+          <t>91,11; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>88,34; 97,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,95; 98,72</t>
+          <t>83,01; 97,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1082,37 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,8%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,92; 100,0</t>
+          <t>79,66; 97,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,04; 100</t>
+          <t>98,17; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,03; 97,22</t>
+          <t>85,85; 97,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,71; 100,0</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,45; 96,87</t>
+          <t>93,61; 98,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,84; 100,0</t>
+          <t>92,56; 98,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>91,11; 100,0</t>
+          <t>90,81; 98,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>88,34; 97,93</t>
+          <t>95,94; 99,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>83,01; 97,63</t>
+          <t>92,7; 97,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>91,22%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>93,54%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>98,61%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>96,82%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>96,93%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>95,91%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>98,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>95,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>79,66; 97,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>98,17; 100</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>85,85; 97,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>95,19; 100,0</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>93,61; 98,89</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>92,56; 98,89</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>90,81; 98,16</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>95,94; 99,07</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>92,7; 97,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -695,12 +696,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,79; 100,0</t>
+          <t>71,49; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>68,29; 100,0</t>
+          <t>72,84; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,98; 100,0</t>
+          <t>82,11; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,93; 100,0</t>
+          <t>81,4; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,86; 100,0</t>
+          <t>83,98; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,89; 91,59</t>
+          <t>48,23; 92,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,7 +806,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,08; 100,0</t>
+          <t>80,79; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>78,46; 96,64</t>
+          <t>77,12; 97,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,2; 100,0</t>
+          <t>92,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -915,7 +916,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,86; 100,0</t>
+          <t>75,57; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,12 +926,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>87,12; 100,0</t>
+          <t>86,44; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,66; 100,0</t>
+          <t>87,75; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +941,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,69; 100,0</t>
+          <t>91,92; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,95; 98,72</t>
+          <t>87,65; 98,72</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,92; 100,0</t>
+          <t>84,6; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,37 +1026,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,03; 97,22</t>
+          <t>75,61; 97,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,71; 100,0</t>
+          <t>92,84; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,45; 96,87</t>
+          <t>81,99; 96,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,84; 100,0</t>
+          <t>82,21; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,11; 100,0</t>
+          <t>93,27; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,34; 97,93</t>
+          <t>89,14; 97,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,01; 97,63</t>
+          <t>84,19; 97,63</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,66; 97,04</t>
+          <t>78,89; 97,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,37 +1136,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,85; 97,19</t>
+          <t>87,54; 97,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,89</t>
+          <t>93,07; 98,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,56; 98,89</t>
+          <t>93,07; 98,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,81; 98,16</t>
+          <t>91,69; 98,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,07</t>
+          <t>95,98; 99,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,7; 97,94</t>
+          <t>92,73; 97,81</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la alergia fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11022</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14925</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17342</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>13938</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31170</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22382</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24961</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46095</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39723</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9293; 11022</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13044; 14925</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13095; 18316</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10850; 14896</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>29312; 31170</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19120; 23287</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21098; 25919</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44179; 46095</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34939; 41602</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17537</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26634</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35963</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58126</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61176</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53500</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94713</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>87811</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11263; 21489</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34534; 36587</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22434; 27769</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33945; 35963</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56104; 58126</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59158; 61176</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45742; 57538</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>92651; 94713</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>82222; 88946</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13714</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21072</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29541</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>42908</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51879</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43256</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73724</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72952</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11864; 13714</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28642; 30816</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16697; 22094</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27724; 29541</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38114; 44092</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>47364; 53974</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41377; 43256</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68856; 74908</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66675; 75097</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27255</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32416</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30563</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>50995</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55755</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48301</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>78250</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88171</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78865</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>23803; 28137</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30484; 32416</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25731; 33110</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>48159; 51876</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>49798; 58775</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>42033; 51126</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74626; 80013</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>83042; 91205</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>71698; 83141</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69528</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114743</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>130438</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>183737</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>199965</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>302703</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>279349</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60132; 74004</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>112648; 114743</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>89476; 99628</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>126046; 132277</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>180665; 191997</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>176422; 187517</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>191171; 204862</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>296439; 306820</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>270575; 285383</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>